--- a/assets/ct.xlsx
+++ b/assets/ct.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Income</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Rac</t>
   </si>
   <si>
-    <t>Dien </t>
+    <t>Dien</t>
   </si>
   <si>
     <t>Cho co</t>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Hoang(moved)</t>
+  </si>
+  <si>
+    <t>bột giặt</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,6 +136,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC5000B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -245,7 +255,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,8 +280,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -282,16 +296,16 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Input" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Bad" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Input" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Bad" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Neutral" xfId="23" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFC5000B"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -357,8 +371,8 @@
   </sheetPr>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,7 +453,7 @@
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">SUM(B17:B38)</f>
-        <v>2023</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,7 +462,7 @@
       </c>
       <c r="B10" s="5" t="n">
         <f aca="false">B8-B9</f>
-        <v>177</v>
+        <v>-233</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +476,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,16 +619,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4453441295547"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1821862348178"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.6437246963563"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
@@ -625,12 +639,12 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="7" t="n">
         <f aca="false">'8-2016'!B10</f>
-        <v>177</v>
+        <v>-233</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,7 +701,7 @@
       </c>
       <c r="B9" s="3" t="n">
         <f aca="false">SUM(B2:B8)</f>
-        <v>1877</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,8 +709,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="n">
-        <f aca="false">SUM(B18:B39)</f>
-        <v>410</v>
+        <f aca="false">SUM(B18:B37)</f>
+        <v>1232.812</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,7 +719,7 @@
       </c>
       <c r="B11" s="5" t="n">
         <f aca="false">B9-B10</f>
-        <v>1467</v>
+        <v>234.188</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,50 +732,56 @@
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="n">
+        <v>506.255</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="n">
+        <v>303.457</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>220.6</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>122.5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>410</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,14 +840,8 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/assets/ct.xlsx
+++ b/assets/ct.xlsx
@@ -5,19 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="577" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="577" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="8-2016" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="9-2016" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="9-2016" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="10-2016" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="11-2016" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="12-2016" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="01-2017" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="2-2017" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
   <si>
     <t>Income</t>
   </si>
@@ -64,22 +67,49 @@
     <t>Cho co</t>
   </si>
   <si>
+    <t>dang ky net</t>
+  </si>
+  <si>
+    <t>nuoc</t>
+  </si>
+  <si>
+    <t>nuoc lan 2</t>
+  </si>
+  <si>
+    <t>9-2016</t>
+  </si>
+  <si>
+    <t>Hoang(moved)</t>
+  </si>
+  <si>
     <t>net</t>
   </si>
   <si>
-    <t>nuoc</t>
-  </si>
-  <si>
-    <t>nuoc lan 2</t>
-  </si>
-  <si>
-    <t>8-2016</t>
-  </si>
-  <si>
-    <t>Hoang(moved)</t>
-  </si>
-  <si>
     <t>bột giặt</t>
+  </si>
+  <si>
+    <t>Sua may giac</t>
+  </si>
+  <si>
+    <t>Điện</t>
+  </si>
+  <si>
+    <t>11-2016</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>Giay ve sinh</t>
+  </si>
+  <si>
+    <t>Nuoc xa</t>
+  </si>
+  <si>
+    <t>12-2016</t>
+  </si>
+  <si>
+    <t>Tu lanh</t>
   </si>
 </sst>
 </file>
@@ -95,7 +125,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -117,35 +146,30 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC5000B"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -296,10 +320,10 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Input" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Bad" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Neutral" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Input" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Neutral" xfId="23" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -371,8 +395,8 @@
   </sheetPr>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,7 +477,7 @@
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">SUM(B17:B38)</f>
-        <v>2433</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +486,7 @@
       </c>
       <c r="B10" s="5" t="n">
         <f aca="false">B8-B9</f>
-        <v>-233</v>
+        <v>-536</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -535,9 +559,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
@@ -621,8 +649,8 @@
   </sheetPr>
   <dimension ref="A1:B65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -643,8 +671,8 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="n">
-        <f aca="false">'8-2016'!B10</f>
-        <v>-233</v>
+        <f aca="false">'9-2016'!B10</f>
+        <v>-536</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,7 +729,7 @@
       </c>
       <c r="B9" s="3" t="n">
         <f aca="false">SUM(B2:B8)</f>
-        <v>1467</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,7 +738,7 @@
       </c>
       <c r="B10" s="4" t="n">
         <f aca="false">SUM(B18:B37)</f>
-        <v>1232.812</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,7 +747,7 @@
       </c>
       <c r="B11" s="5" t="n">
         <f aca="false">B9-B10</f>
-        <v>234.188</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>506.255</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,15 +777,15 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>303.457</v>
+        <v>238.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>220.6</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,7 +798,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>122.5</v>
@@ -862,17 +890,905 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4453441295547"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.6437246963563"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.5748987854251"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <f aca="false">'10-2016'!B11</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <f aca="false">SUM(B2:B8)</f>
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <f aca="false">SUM(B18:B35)</f>
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <f aca="false">B9-B10</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.0445344129555"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.5748987854251"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <f aca="false">'11-2016'!B11</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <f aca="false">SUM(B2:B8)</f>
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <f aca="false">SUM(B18:B33)</f>
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <f aca="false">B9-B10</f>
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.0445344129555"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.5748987854251"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <f aca="false">'12-2016'!B11</f>
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <f aca="false">SUM(B2:B8)</f>
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <f aca="false">SUM(B18:B33)</f>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <f aca="false">B9-B10</f>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.0445344129555"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.5748987854251"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <f aca="false">'01-2017'!B11</f>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <f aca="false">SUM(B2:B8)</f>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <f aca="false">SUM(B18:B33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <f aca="false">B9-B10</f>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
